--- a/Salesforce Data Collect.xlsx
+++ b/Salesforce Data Collect.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2217534\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B801ABE-D01D-4A6A-83C2-88112681F743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EndPoint Asset Inventory" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Client Asset Inventory" sheetId="2" r:id="rId5"/>
+    <sheet name="EndPoint Asset Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Client Asset Inventory" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="276">
   <si>
     <t>SI #</t>
   </si>
@@ -347,9 +357,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>s.bargi@salesforce.com</t>
     </r>
@@ -369,9 +379,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>srinivas.yadala@salesforce.com</t>
     </r>
@@ -523,9 +533,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>babita.soren@salesforce.com</t>
     </r>
@@ -539,9 +549,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>ratmuri@salesforce.com</t>
     </r>
@@ -555,9 +565,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>shireen.siddiqui@salesforce.com</t>
     </r>
@@ -574,9 +584,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>dsubramanyam@salesforce.com</t>
     </r>
@@ -593,9 +603,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>subhashini.c@salesforce.com</t>
     </r>
@@ -618,9 +628,9 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>sudhakark@salesforce.com</t>
     </r>
@@ -726,91 +736,300 @@
   </si>
   <si>
     <t>akavitha@salesforce.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>City, State/Province</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Date of Joining CTS</t>
+  </si>
+  <si>
+    <t>Date of Joining  Project</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Goyal,Rohit</t>
+  </si>
+  <si>
+    <t>Kaley,Pranav</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY28</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY32</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY36</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY37</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY38</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY39</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY40</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY41</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY42</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY43</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>V,Raghul</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY44</t>
+  </si>
+  <si>
+    <t>Ghosh,Tathagata</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY45</t>
+  </si>
+  <si>
+    <t>D,Giridharan</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY46</t>
+  </si>
+  <si>
+    <t>Ajay Kumar,Bheemavarapu</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY47</t>
+  </si>
+  <si>
+    <t>Priyadarshi,Ayush</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY48</t>
+  </si>
+  <si>
+    <t>Dubey,Vinayak</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY49</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY50</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY51</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY52</t>
+  </si>
+  <si>
+    <t>S,Ashish Prithvi</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY53</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY54</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY55</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY56</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY57</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY58</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY59</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY60</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY61</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY62</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY63</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY64</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY65</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY66</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY67</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY68</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY69</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY70</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY71</t>
+  </si>
+  <si>
+    <t>SFDC IT Partner Enblmnt FY72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF1E314C"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1D1C1D"/>
       <name val="Slack-Lato"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000038"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000048"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -842,9 +1061,27 @@
         <bgColor rgb="FFF8F8F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -858,6 +1095,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -872,6 +1110,7 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -886,6 +1125,7 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -900,6 +1140,7 @@
       <bottom style="thin">
         <color rgb="FF888888"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -914,142 +1155,181 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1239,27 +1519,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="4" max="4" width="18.63"/>
-    <col customWidth="1" min="5" max="5" width="29.38"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
-    <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1306,18 +1589,18 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>151644.0</v>
+        <v>151644</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -1332,14 +1615,14 @@
         <v>16</v>
       </c>
       <c r="F3" s="6">
-        <v>187181.0</v>
+        <v>187181</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1348,14 +1631,14 @@
         <v>17</v>
       </c>
       <c r="F4" s="6">
-        <v>2068257.0</v>
+        <v>2068257</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
@@ -1367,19 +1650,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="8">
-        <v>2070659.0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+        <v>2070659</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="9">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1391,14 +1674,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="6">
-        <v>2076472.0</v>
+        <v>2076472</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1407,94 +1690,94 @@
         <v>24</v>
       </c>
       <c r="F7" s="6">
-        <v>2076706.0</v>
+        <v>2076706</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="6">
-        <v>2104740.0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>2104740</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="6">
-        <v>2116600.0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>2116600</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9">
-        <v>9.0</v>
+      <c r="I9" s="5">
+        <v>9</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="6">
-        <v>2122780.0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+        <v>2122780</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="9">
-        <v>3.0</v>
+      <c r="I10" s="5">
+        <v>3</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1503,64 +1786,64 @@
         <v>34</v>
       </c>
       <c r="F11" s="6">
-        <v>2135193.0</v>
+        <v>2135193</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="6">
-        <v>2181714.0</v>
+        <v>2181714</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>6.0</v>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6</v>
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="6">
-        <v>2202311.0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>2202311</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
@@ -1575,48 +1858,48 @@
         <v>41</v>
       </c>
       <c r="F14" s="6">
-        <v>2217534.0</v>
+        <v>2217534</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="9">
-        <v>6.0</v>
+      <c r="I14" s="5">
+        <v>6</v>
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="6">
-        <v>2219150.0</v>
+        <v>2219150</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="9">
-        <v>5.0</v>
+      <c r="I15" s="5">
+        <v>5</v>
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1629,16 +1912,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="6">
-        <v>2219331.0</v>
+        <v>2219331</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1651,16 +1934,16 @@
         <v>49</v>
       </c>
       <c r="F17" s="6">
-        <v>2222195.0</v>
+        <v>2222195</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1673,19 +1956,19 @@
         <v>51</v>
       </c>
       <c r="F18" s="6">
-        <v>2262549.0</v>
+        <v>2262549</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1695,14 +1978,14 @@
         <v>53</v>
       </c>
       <c r="F19" s="6">
-        <v>2321707.0</v>
+        <v>2321707</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1711,36 +1994,36 @@
         <v>54</v>
       </c>
       <c r="F20" s="6">
-        <v>2334028.0</v>
+        <v>2334028</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.5">
       <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="6">
-        <v>2373162.0</v>
+        <v>2373162</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.5">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
@@ -1755,42 +2038,42 @@
         <v>58</v>
       </c>
       <c r="F22" s="6">
-        <v>2374203.0</v>
+        <v>2374203</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.5">
       <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="6">
-        <v>2375036.0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+        <v>2375036</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>6.0</v>
+      <c r="H23" s="5">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>10</v>
@@ -1805,64 +2088,64 @@
         <v>64</v>
       </c>
       <c r="F24" s="6">
-        <v>2399847.0</v>
+        <v>2399847</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="15.5">
       <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="6">
-        <v>2400515.0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+        <v>2400515</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="15.5">
       <c r="A26" s="5"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="6">
-        <v>240371.0</v>
-      </c>
-      <c r="G26" s="9" t="s">
+        <v>240371</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="9">
-        <v>2.0</v>
+      <c r="I26" s="5">
+        <v>2</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="15.5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1871,14 +2154,14 @@
         <v>71</v>
       </c>
       <c r="F27" s="6">
-        <v>2413353.0</v>
+        <v>2413353</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15.5">
       <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
         <v>72</v>
@@ -1886,29 +2169,29 @@
       <c r="C28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="6">
-        <v>2425031.0</v>
-      </c>
-      <c r="G28" s="9" t="s">
+        <v>2425031</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="I28" s="5">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="15.5">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1917,14 +2200,14 @@
         <v>78</v>
       </c>
       <c r="F29" s="6">
-        <v>2427053.0</v>
+        <v>2427053</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="15.5">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>10</v>
@@ -1939,30 +2222,30 @@
         <v>80</v>
       </c>
       <c r="F30" s="6">
-        <v>266972.0</v>
+        <v>266972</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="15.5">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="6">
-        <v>280193.0</v>
+        <v>280193</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="15.5">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>12</v>
@@ -1970,27 +2253,27 @@
       <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F32" s="6">
-        <v>474413.0</v>
+        <v>474413</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="15">
-        <v>6.0</v>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>6</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="15.5">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -2003,16 +2286,16 @@
         <v>85</v>
       </c>
       <c r="F33" s="6">
-        <v>698640.0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+        <v>698640</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="15.5">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2021,19 +2304,19 @@
         <v>86</v>
       </c>
       <c r="F34" s="6">
-        <v>710958.0</v>
+        <v>710958</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="15.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="5"/>
@@ -2041,36 +2324,36 @@
         <v>88</v>
       </c>
       <c r="F35" s="6">
-        <v>742121.0</v>
+        <v>742121</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" ht="15.5">
       <c r="A36" s="5"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F36" s="6">
-        <v>787527.0</v>
+        <v>787527</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" ht="15.5">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2079,110 +2362,110 @@
         <v>91</v>
       </c>
       <c r="F37" s="6">
-        <v>862480.0</v>
+        <v>862480</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="15.5">
       <c r="A38" s="5"/>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="9">
-        <v>2.22471511E8</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="5">
+        <v>222471511</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="6">
-        <v>893721.0</v>
+        <v>893721</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="26">
       <c r="A39" s="5"/>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="6">
-        <v>920734.0</v>
-      </c>
-      <c r="G39" s="16" t="s">
+        <v>920734</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>94</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="I39" s="5">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="15.5">
       <c r="A40" s="5"/>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="6">
-        <v>937590.0</v>
-      </c>
-      <c r="G40" s="9" t="s">
+        <v>937590</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="15.5">
       <c r="A41" s="5"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F41" s="6">
-        <v>944390.0</v>
-      </c>
-      <c r="G41" s="9" t="s">
+        <v>944390</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="15.5">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2191,7 +2474,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="6">
-        <v>946602.0</v>
+        <v>946602</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2199,891 +2482,1978 @@
       <c r="J42" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386EFE90-937B-45BF-BEC2-16D2A1286F6C}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1"/>
+    <col min="8" max="8" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13" thickBot="1">
+      <c r="A1" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="34">
+        <v>151644</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1000408435</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
+      <c r="A3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="34">
+        <v>187181</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1000408436</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="34">
+        <v>2068257</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1000408437</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="34">
+        <v>2070659</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1000408438</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
+      <c r="A6" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="34">
+        <v>2073778</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1000408439</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2076472</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1000408440</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="A8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="34">
+        <v>2076706</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1000408441</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="34">
+        <v>2104740</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1000408442</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="34">
+        <v>2116600</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1000408443</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1">
+      <c r="A11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2122780</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1000408444</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1">
+      <c r="A12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="34">
+        <v>2135193</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1000408445</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="34">
+        <v>2181714</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1000408446</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
+      <c r="A14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="34">
+        <v>2202311</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1000408447</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1">
+      <c r="A15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="34">
+        <v>2217534</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1000408448</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1">
+      <c r="A16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="34">
+        <v>2219150</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1000408449</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1">
+      <c r="A17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="34">
+        <v>2219331</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1000408450</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1">
+      <c r="A18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="34">
+        <v>2222195</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1000408451</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1">
+      <c r="A19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2262549</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1000408452</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1">
+      <c r="A20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="34">
+        <v>2321707</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1000408453</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1">
+      <c r="A21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="34">
+        <v>2334028</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1000408454</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1">
+      <c r="A22" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="34">
+        <v>2356370</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1000408455</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1">
+      <c r="A23" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="34">
+        <v>2361422</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1000408456</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1">
+      <c r="A24" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="34">
+        <v>2361774</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1000408457</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1">
+      <c r="A25" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="34">
+        <v>2364867</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1000408458</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1">
+      <c r="A26" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="34">
+        <v>2364973</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1000408459</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
+      <c r="A27" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="34">
+        <v>2371821</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1000408460</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1">
+      <c r="A28" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="34">
+        <v>2373162</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1000408461</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1">
+      <c r="A29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="34">
+        <v>2374203</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1000408462</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1">
+      <c r="A30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2375036</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1000408463</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1">
+      <c r="A31" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="34">
+        <v>2393084</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1000408464</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="A32" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="34">
+        <v>2399847</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1000408465</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1">
+      <c r="A33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="34">
+        <v>2400515</v>
+      </c>
+      <c r="C33" s="34">
+        <v>1000408466</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1">
+      <c r="A34" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="34">
+        <v>240371</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1000408467</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1">
+      <c r="A35" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="34">
+        <v>2413353</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1000408468</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1">
+      <c r="A36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="34">
+        <v>2425031</v>
+      </c>
+      <c r="C36" s="34">
+        <v>1000408469</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1">
+      <c r="A37" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2427053</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1000408470</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1">
+      <c r="A38" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="34">
+        <v>266972</v>
+      </c>
+      <c r="C38" s="34">
+        <v>1000408471</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1">
+      <c r="A39" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="34">
+        <v>280193</v>
+      </c>
+      <c r="C39" s="34">
+        <v>1000408472</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1">
+      <c r="A40" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="34">
+        <v>474413</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1000408473</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1">
+      <c r="A41" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="34">
+        <v>698640</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1000408474</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1">
+      <c r="A42" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="34">
+        <v>710958</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1000408475</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1">
+      <c r="A43" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="34">
+        <v>742121</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1000408476</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1">
+      <c r="A44" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="34">
+        <v>787527</v>
+      </c>
+      <c r="C44" s="34">
+        <v>1000408477</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1">
+      <c r="A45" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="34">
+        <v>862480</v>
+      </c>
+      <c r="C45" s="34">
+        <v>1000408478</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1">
+      <c r="A46" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="34">
+        <v>893721</v>
+      </c>
+      <c r="C46" s="34">
+        <v>1000408479</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1">
+      <c r="A47" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="34">
+        <v>920734</v>
+      </c>
+      <c r="C47" s="34">
+        <v>1000408480</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1">
+      <c r="A48" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="34">
+        <v>937590</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1000408481</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1">
+      <c r="A49" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="34">
+        <v>944390</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1000408482</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1">
+      <c r="A50" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="34">
+        <v>946602</v>
+      </c>
+      <c r="C50" s="34">
+        <v>1000408483</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.5">
+      <c r="A51" s="39"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.5">
+      <c r="A52" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="21.75"/>
-    <col customWidth="1" min="6" max="6" width="29.63"/>
-    <col customWidth="1" min="7" max="7" width="26.75"/>
-    <col customWidth="1" min="9" max="9" width="29.75"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="J2" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="J3" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="J4" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="J5" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="J6" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="J7" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="J8" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="J9" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="J10" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="J11" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="J12" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="J13" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="J14" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="18">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="J15" s="17">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="21" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="J16" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="J17" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="J18" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="23">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="J19" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.5">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="J20" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="J20" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.5">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="J21" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="23">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="J21" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="J22" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="23">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="J22" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.5">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J23" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="23">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="J23" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.5">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="J24" s="23">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="23">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="J24" s="21">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.5">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J25" s="36">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="23">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="J25" s="29">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.5">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="28">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="23">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="J26" s="23">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.5">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="28">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="23">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="J27" s="23">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.5">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="23">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="J28" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.5">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3104,16 +4474,16 @@
       <c r="H29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="J29" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.5">
       <c r="A30" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>213</v>
@@ -3124,16 +4494,16 @@
       <c r="F30" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="21">
-        <v>1.000408435E9</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="J30" s="19">
+        <v>1000408435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.5">
       <c r="A31" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>143</v>
@@ -3156,24 +4526,24 @@
       <c r="H31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="28">
-        <v>1.000408435E9</v>
+      <c r="J31" s="23">
+        <v>1000408435</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F16"/>
-    <hyperlink r:id="rId4" ref="F17"/>
-    <hyperlink r:id="rId5" ref="F18"/>
-    <hyperlink r:id="rId6" ref="F19"/>
-    <hyperlink r:id="rId7" ref="F20"/>
-    <hyperlink r:id="rId8" ref="F21"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F20" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>